--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -821,6 +821,110 @@
       </c>
       <c r="P7" t="n">
         <v>0.8310167789459229</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>GPT4o-Full_Text-Oneshot</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2.030612244897959</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.081632653061225</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2.193877551020408</v>
+      </c>
+      <c r="F8" t="n">
+        <v>9.704081632653061</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.7653061224489796</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.8669136762619019</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.8549706339836121</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.8607351183891296</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.8207288384437561</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.8493871688842773</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.8346220254898071</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.836767852306366</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.8312848210334778</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.8335224986076355</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>GPT4o-Full_Text-Zeroshot</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="F9" t="n">
+        <v>7.95</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.8600817918777466</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.8626554012298584</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.8611785769462585</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.8135090470314026</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.8519496321678162</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.8320786952972412</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.8297908306121826</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.8356358408927917</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.8321437239646912</v>
       </c>
     </row>
   </sheetData>
@@ -834,7 +938,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1231,6 +1335,110 @@
         <v>0.8288238644599915</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>GPT4o-Full_Text-Oneshot</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F8" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.8661414384841919</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.8620779514312744</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.8639384508132935</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.8188620805740356</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.8535429239273071</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.8356228470802307</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.8270780444145203</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.8365085124969482</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.8313385248184204</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>GPT4o-Full_Text-Zeroshot</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="F9" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.858753502368927</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.8695774078369141</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.8639423847198486</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.8110246062278748</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.8560861945152283</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.8327318429946899</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.8179833889007568</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.8387397527694702</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.8278133273124695</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
